--- a/jmeter/jmeter测试数据记录.xlsx
+++ b/jmeter/jmeter测试数据记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>性能测试开始前</t>
   </si>
@@ -28,22 +28,28 @@
     <t>内存占用(容器)</t>
   </si>
   <si>
-    <t>web-pm-go</t>
-  </si>
-  <si>
-    <t>16.48MB</t>
-  </si>
-  <si>
-    <t>web-pm-java</t>
-  </si>
-  <si>
-    <t>397MB</t>
+    <t>web-pm-gin</t>
+  </si>
+  <si>
+    <t>10.15MB</t>
+  </si>
+  <si>
+    <t>web-pm-springboot</t>
+  </si>
+  <si>
+    <t>151.1MB</t>
   </si>
   <si>
     <t>web-pm-quarkus</t>
   </si>
   <si>
-    <t>30.18MB</t>
+    <t>19.66MB</t>
+  </si>
+  <si>
+    <t>web-pm-vertx</t>
+  </si>
+  <si>
+    <t>96.07MB</t>
   </si>
   <si>
     <t>热身后</t>
@@ -93,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,43 +124,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +135,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -176,83 +251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,43 +272,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,133 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,56 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,147 +512,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1063,16 +1062,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.3801652892562" customWidth="true"/>
-    <col min="2" max="2" width="16.6611570247934" customWidth="true"/>
+    <col min="2" max="2" width="19.1404958677686" customWidth="true"/>
     <col min="3" max="3" width="17.5371900826446" customWidth="true"/>
     <col min="4" max="4" width="16.1404958677686" customWidth="true"/>
     <col min="5" max="6" width="15.0082644628099" customWidth="true"/>
@@ -1110,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0015</v>
+        <v>0.0014</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1121,15 +1120,26 @@
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0013</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1145,26 +1155,39 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <v>0.0015</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1178,10 +1201,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -1199,9 +1222,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -1230,14 +1258,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:7">
@@ -1245,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
@@ -1254,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -1275,9 +1308,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -1306,14 +1344,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -1321,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -1330,10 +1373,10 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:2">
@@ -1351,9 +1394,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -1382,9 +1430,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -1415,6 +1468,11 @@
         <v>8</v>
       </c>
       <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jmeter/jmeter测试数据记录.xlsx
+++ b/jmeter/jmeter测试数据记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18053"/>
+    <workbookView windowHeight="18659"/>
   </bookViews>
   <sheets>
     <sheet name="容器资源消耗" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="111">
   <si>
     <t>性能测试开始前</t>
   </si>
@@ -286,6 +286,9 @@
     <t>708MB</t>
   </si>
   <si>
+    <t>49.21MB</t>
+  </si>
+  <si>
     <t>性能测试结束一段时间后</t>
   </si>
   <si>
@@ -354,10 +357,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -369,7 +372,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,10 +393,49 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,67 +455,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -481,16 +475,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,6 +506,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -521,7 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,43 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,37 +566,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,19 +638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,13 +662,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,25 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,24 +715,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,17 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,6 +757,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -794,6 +788,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,148 +820,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2779,14 +2782,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>12</v>
       </c>
+      <c r="C68" s="1">
+        <v>0.0001</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -2808,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -2819,7 +2828,7 @@
         <v>0.0012</v>
       </c>
       <c r="D75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -2852,7 +2861,7 @@
         <v>0.0001</v>
       </c>
       <c r="D78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2884,55 +2893,55 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -10374,55 +10383,55 @@
     </row>
     <row r="201" spans="2:18">
       <c r="B201" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C201" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D201" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E201" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F201" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G201" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H201" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I201" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J201" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K201" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L201" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M201" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N201" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O201" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P201" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q201" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R201" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="2:18">
@@ -20720,55 +20729,55 @@
     </row>
     <row r="425" spans="2:18">
       <c r="B425" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C425" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D425" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E425" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F425" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G425" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H425" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I425" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J425" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K425" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L425" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M425" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N425" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O425" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P425" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q425" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R425" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="426" spans="2:18">
@@ -28204,55 +28213,55 @@
     </row>
     <row r="594" spans="2:18">
       <c r="B594" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C594" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D594" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E594" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F594" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G594" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H594" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I594" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J594" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K594" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L594" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M594" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N594" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O594" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P594" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q594" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R594" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="595" spans="2:18">
@@ -35900,55 +35909,55 @@
     </row>
     <row r="771" spans="2:18">
       <c r="B771" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C771" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D771" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E771" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F771" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G771" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H771" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I771" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J771" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K771" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L771" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M771" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N771" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O771" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P771" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q771" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R771" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="772" spans="2:18">
@@ -43618,55 +43627,55 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -51208,55 +51217,55 @@
     </row>
     <row r="202" spans="2:18">
       <c r="B202" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C202" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D202" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E202" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F202" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G202" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H202" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I202" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J202" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K202" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L202" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M202" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N202" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O202" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P202" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q202" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="203" spans="2:18">
@@ -58639,55 +58648,55 @@
     </row>
     <row r="372" spans="2:18">
       <c r="B372" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C372" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D372" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E372" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F372" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G372" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H372" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I372" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J372" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K372" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L372" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M372" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N372" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O372" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P372" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q372" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R372" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="373" spans="2:18">
@@ -65964,55 +65973,55 @@
     </row>
     <row r="540" spans="2:18">
       <c r="B540" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C540" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D540" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E540" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F540" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G540" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H540" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I540" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J540" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K540" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L540" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M540" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N540" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O540" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P540" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q540" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R540" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="541" spans="2:18">
@@ -73395,55 +73404,55 @@
     </row>
     <row r="710" spans="2:18">
       <c r="B710" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C710" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D710" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E710" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F710" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G710" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H710" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I710" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J710" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K710" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L710" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M710" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N710" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O710" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P710" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q710" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R710" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="711" spans="2:18">
@@ -81113,55 +81122,55 @@
     </row>
     <row r="29" spans="2:18">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:18">
@@ -88597,55 +88606,55 @@
     </row>
     <row r="200" spans="2:18">
       <c r="B200" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C200" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D200" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E200" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F200" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G200" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H200" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I200" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J200" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K200" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L200" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M200" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N200" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O200" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P200" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q200" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R200" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="201" spans="2:18">
@@ -96081,55 +96090,55 @@
     </row>
     <row r="370" spans="2:18">
       <c r="B370" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C370" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D370" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E370" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F370" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G370" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H370" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I370" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J370" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K370" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L370" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M370" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N370" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O370" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P370" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q370" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R370" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="371" spans="2:18">
@@ -103618,55 +103627,55 @@
     </row>
     <row r="540" spans="2:18">
       <c r="B540" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C540" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D540" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E540" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F540" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G540" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H540" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I540" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J540" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K540" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L540" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M540" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N540" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O540" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P540" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q540" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R540" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="541" spans="2:18">
@@ -111314,55 +111323,55 @@
     </row>
     <row r="715" spans="2:18">
       <c r="B715" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C715" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D715" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E715" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F715" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G715" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H715" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I715" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J715" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K715" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L715" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M715" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N715" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O715" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P715" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q715" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R715" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="716" spans="2:18">
